--- a/2018_kidarifund_dataset_after.xlsx
+++ b/2018_kidarifund_dataset_after.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김예지\Desktop\키다리은행\TF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khb72\OneDrive\바탕 화면\대학교\3학년\1학기\키다리\금융심사자동화\최종데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,77 +23,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>김예지</author>
-  </authors>
-  <commentList>
-    <comment ref="M2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>김예지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:
-2019</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>김예지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-2019</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
@@ -285,7 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,27 +229,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -628,11 +536,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1167,7 +1075,6 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="G12">
@@ -1304,9 +1211,8 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>합의금</v>
+      <c r="F15">
+        <v>8</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
@@ -1396,9 +1302,8 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>합의금</v>
+      <c r="F17">
+        <v>8</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
@@ -2086,9 +1991,8 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>합의금</v>
+      <c r="F32">
+        <v>8</v>
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
@@ -2211,6 +2115,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>